--- a/console/Networking/networkExcel1029/componentsMixinsXlsx/netSecurityMixinsXlsx/securityGroupRuleList.xlsx
+++ b/console/Networking/networkExcel1029/componentsMixinsXlsx/netSecurityMixinsXlsx/securityGroupRuleList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaoxiangyi\Desktop\11.1\2018.11.1 京东云console-精益通-韩凯\质检-1810-31_HO_console-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GTCOM\JD\!!Workspace\1811-14_HB\console-EN_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -461,18 +461,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Target Port</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">'Source IP' </t>
     </r>
   </si>
@@ -485,18 +473,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>‘Target IP’</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Policy</t>
     </r>
   </si>
@@ -509,30 +485,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Note</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Action</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>'The number of security group rules has reached cap'</t>
     </r>
   </si>
@@ -545,18 +497,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Add New Rules</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>'Obtain rule list successfully</t>
     </r>
   </si>
@@ -569,18 +509,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>‘The Length of List to be Deleted</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>'Check all rule lists'</t>
     </r>
   </si>
@@ -631,6 +559,30 @@
       </rPr>
       <t>item'</t>
     </r>
+  </si>
+  <si>
+    <t>Destination Port Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Destination IP'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add  new rules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The length of list to be deleted'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -673,11 +625,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1017,16 +970,16 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="37.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="37.36328125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" customWidth="1"/>
-    <col min="3" max="3" width="42.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" customWidth="1"/>
+    <col min="3" max="3" width="42.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1037,7 +990,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1048,7 +1001,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1056,10 +1009,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1067,21 +1020,21 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1089,10 +1042,10 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1100,10 +1053,10 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1111,10 +1064,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1122,10 +1075,10 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1133,10 +1086,10 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1144,21 +1097,21 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1166,10 +1119,10 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1177,10 +1130,10 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1188,10 +1141,10 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1199,10 +1152,10 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1210,12 +1163,13 @@
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B17" numberStoredAsText="1"/>
   </ignoredErrors>
